--- a/xlsxPCES/examples/queueing.xlsx
+++ b/xlsxPCES/examples/queueing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicol/Dropbox/github-repos/pcesbld-working/queueing/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicol/Dropbox/github-repos/pcesapps/queueing/xlsx/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F9F8A-47AA-4141-ACB1-E6ED1831F396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD939C2-E06A-9F43-8BC7-658C8344FC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="500" windowWidth="34220" windowHeight="19580" activeTab="5" xr2:uid="{7E753834-245C-A346-8630-DEF93455D7FF}"/>
+    <workbookView xWindow="7620" yWindow="760" windowWidth="34560" windowHeight="20140" activeTab="5" xr2:uid="{7E753834-245C-A346-8630-DEF93455D7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="topo" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="211">
   <si>
     <t>Networks</t>
   </si>
@@ -190,12 +190,6 @@
     <t>exec time</t>
   </si>
   <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t>perbyte</t>
-  </si>
-  <si>
     <t>CPU Entries</t>
   </si>
   <si>
@@ -418,9 +412,6 @@
     <t>encrypt-AES-256-CBC</t>
   </si>
   <si>
-    <t>AMD EPYC 9534 64-Core Processor</t>
-  </si>
-  <si>
     <t>decrypt-AES-256-CBC</t>
   </si>
   <si>
@@ -433,21 +424,12 @@
     <t>decrypt-AES-128-CBC</t>
   </si>
   <si>
-    <t>Aruba 3810m</t>
-  </si>
-  <si>
     <t>switch</t>
   </si>
   <si>
     <t>Netgear GS324T</t>
   </si>
   <si>
-    <t>Netgear GS724T</t>
-  </si>
-  <si>
-    <t>Netgear GJS524e</t>
-  </si>
-  <si>
     <t>hmiDev</t>
   </si>
   <si>
@@ -490,9 +472,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>bypass</t>
-  </si>
-  <si>
     <t>srvcp</t>
   </si>
   <si>
@@ -565,9 +544,15 @@
     <t>exp-2</t>
   </si>
   <si>
+    <t>AES-256-CBC</t>
+  </si>
+  <si>
     <t>exp-3</t>
   </si>
   <si>
+    <t>AES-128-CBC</t>
+  </si>
+  <si>
     <t>exp-4</t>
   </si>
   <si>
@@ -577,34 +562,124 @@
     <t>name</t>
   </si>
   <si>
-    <t>$lambda</t>
+    <t>$crypto,cp</t>
+  </si>
+  <si>
+    <t>$bndwdth,netParams</t>
+  </si>
+  <si>
+    <t>exp-5</t>
+  </si>
+  <si>
+    <t>exp-6</t>
+  </si>
+  <si>
+    <t>exp-7</t>
+  </si>
+  <si>
+    <t>exp-8</t>
+  </si>
+  <si>
+    <t>AMD EPYC 7763 64-Core Processor</t>
+  </si>
+  <si>
+    <t>decrypt-AES-128-CTR</t>
+  </si>
+  <si>
+    <t>decrypt-AES-128-ECB</t>
+  </si>
+  <si>
+    <t>decrypt-AES-128-GCM</t>
+  </si>
+  <si>
+    <t>decrypt-AES-256-CTR</t>
+  </si>
+  <si>
+    <t>decrypt-AES-256-ECB</t>
+  </si>
+  <si>
+    <t>decrypt-AES-256-GCM</t>
+  </si>
+  <si>
+    <t>encrypt-AES-128-CTR</t>
+  </si>
+  <si>
+    <t>encrypt-AES-128-ECB</t>
+  </si>
+  <si>
+    <t>encrypt-AES-128-GCM</t>
+  </si>
+  <si>
+    <t>encrypt-AES-256-CTR</t>
+  </si>
+  <si>
+    <t>encrypt-AES-256-ECB</t>
+  </si>
+  <si>
+    <t>encrypt-AES-256-GCM</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i7-8650U CPU</t>
+  </si>
+  <si>
+    <t>decrypt-RSA-2048-na</t>
+  </si>
+  <si>
+    <t>decrypt-RSA-3072-na</t>
+  </si>
+  <si>
+    <t>encrypt-RSA-2048-na</t>
+  </si>
+  <si>
+    <t>encrypt-RSA-3072-na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco 4300 </t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>Aruba 3810</t>
+  </si>
+  <si>
+    <t>Netgear GJS524E</t>
+  </si>
+  <si>
+    <t>bandwidth</t>
+  </si>
+  <si>
+    <t>float($bndwdth)</t>
+  </si>
+  <si>
+    <t>interruptdelay (musec)</t>
+  </si>
+  <si>
+    <t>nub</t>
+  </si>
+  <si>
+    <t>pcktlen (bytes)</t>
+  </si>
+  <si>
+    <t>exec time (usec)</t>
+  </si>
+  <si>
+    <t>float($lambda)</t>
+  </si>
+  <si>
+    <t>repeat</t>
   </si>
   <si>
     <t>$lambda,cp</t>
-  </si>
-  <si>
-    <t>repeat</t>
-  </si>
-  <si>
-    <t>exp-5</t>
-  </si>
-  <si>
-    <t>exp-6</t>
-  </si>
-  <si>
-    <t>exp-7</t>
-  </si>
-  <si>
-    <t>exp-8</t>
-  </si>
-  <si>
-    <t>exp-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1178,7 +1253,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1191,10 +1266,25 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1572,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95325CDA-052A-9A47-A8FD-348C19C2091E}">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1581,7 +1671,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
@@ -1595,7 +1685,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1609,38 +1699,38 @@
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1650,12 +1740,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1667,17 +1757,17 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>200</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1685,7 +1775,7 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1693,7 +1783,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1708,7 +1798,7 @@
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1725,7 +1815,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -1733,7 +1823,7 @@
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1751,34 +1841,34 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>126</v>
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -1787,18 +1877,18 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -1807,20 +1897,20 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
@@ -1831,10 +1921,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1842,10 +1932,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1853,10 +1943,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1864,40 +1954,43 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1907,80 +2000,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FA9935-1338-5743-9994-8B53C9940146}">
-  <dimension ref="A3:N101"/>
+  <dimension ref="A2:N100"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="144" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView topLeftCell="A51" zoomScale="155" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" customWidth="1"/>
     <col min="13" max="13" width="24.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>140</v>
+      <c r="F3" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>104</v>
       </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1988,23 +2088,23 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2012,56 +2112,56 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
       <c r="D15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
@@ -2069,579 +2169,589 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="D19" t="s">
         <v>112</v>
       </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>114</v>
       </c>
-      <c r="E20" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>116</v>
       </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>117</v>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>34</v>
+      <c r="A32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>37</v>
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
         <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
         <v>108</v>
       </c>
-      <c r="D39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" t="s">
-        <v>143</v>
+      <c r="C41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
         <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
         <v>109</v>
       </c>
       <c r="D45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
         <v>111</v>
       </c>
-      <c r="E45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" s="18"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
         <v>111</v>
       </c>
-      <c r="D46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" t="s">
         <v>103</v>
-      </c>
-      <c r="C48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" t="s">
         <v>103</v>
-      </c>
-      <c r="C53" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J53" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" t="s">
         <v>110</v>
       </c>
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" t="s">
-        <v>121</v>
-      </c>
-      <c r="J54" t="s">
-        <v>105</v>
+      <c r="H54" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" t="s">
         <v>110</v>
-      </c>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" t="s">
-        <v>121</v>
       </c>
       <c r="H55" t="s">
         <v>112</v>
       </c>
       <c r="I55" t="s">
-        <v>114</v>
-      </c>
-      <c r="J55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>75</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" t="s">
+        <v>115</v>
+      </c>
+      <c r="H61" t="s">
+        <v>55</v>
+      </c>
+      <c r="I61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
         <v>110</v>
       </c>
-      <c r="C56" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G56" t="s">
-        <v>121</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="C63" t="s">
         <v>112</v>
       </c>
-      <c r="I56" t="s">
-        <v>114</v>
-      </c>
-      <c r="J56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" t="s">
-        <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" t="s">
-        <v>121</v>
-      </c>
-      <c r="J57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J59" s="4" t="s">
+      <c r="G66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" t="s">
-        <v>117</v>
-      </c>
-      <c r="H60" t="s">
-        <v>57</v>
-      </c>
-      <c r="I60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" t="s">
-        <v>117</v>
-      </c>
-      <c r="H62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" t="s">
-        <v>114</v>
-      </c>
-      <c r="F64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F65" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>6</v>
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2649,381 +2759,364 @@
         <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72">
+        <v>1000</v>
+      </c>
+      <c r="E72">
+        <v>1500</v>
+      </c>
+      <c r="F72" t="s">
         <v>30</v>
       </c>
-      <c r="B69" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" t="s">
+        <v>119</v>
+      </c>
+      <c r="H75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" t="s">
+        <v>125</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
         <v>123</v>
       </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I72" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="I92" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73">
-        <v>1000</v>
-      </c>
-      <c r="E73">
-        <v>1500</v>
-      </c>
-      <c r="F73" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" t="s">
-        <v>121</v>
-      </c>
-      <c r="G76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" t="s">
-        <v>128</v>
-      </c>
-      <c r="F81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" t="s">
-        <v>167</v>
-      </c>
-      <c r="D83" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" t="s">
-        <v>103</v>
-      </c>
-      <c r="C85" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" t="s">
-        <v>119</v>
-      </c>
-      <c r="E85" t="s">
-        <v>127</v>
-      </c>
-      <c r="F85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D87" t="s">
-        <v>120</v>
-      </c>
-      <c r="E87" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D89" t="s">
-        <v>120</v>
-      </c>
-      <c r="E89" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>6</v>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3033,446 +3126,5086 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E788907-EF7B-7245-8B51-85EEFFE3B34D}">
-  <dimension ref="A2:D43"/>
+  <dimension ref="A1:E374"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A46" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>52</v>
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>49</v>
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C4">
-        <v>128</v>
+        <v>1500</v>
       </c>
       <c r="D4">
-        <v>0.87348550000000003</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>127</v>
       </c>
       <c r="C5">
-        <v>128</v>
-      </c>
-      <c r="D5">
-        <v>0.62579249999999997</v>
+        <v>64</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.41397799804626401</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6">
-        <v>1500</v>
-      </c>
-      <c r="D6">
-        <v>5.4710410000000005</v>
+        <v>128</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.650250830070213</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7">
-        <v>1500</v>
-      </c>
-      <c r="D7">
-        <v>4.5559009999999995</v>
+        <v>196</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.90129071409565897</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8">
-        <v>3.792754</v>
+        <v>256</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1.1227964941181099</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9">
-        <v>3.0970979999999999</v>
+        <v>384</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1.5953421581659999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
+        <v>512</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2.0678878222138999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11">
-        <v>32.294883999999996</v>
+        <v>768</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3.0129791503096999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>1000</v>
       </c>
-      <c r="D12">
-        <v>10</v>
+      <c r="D12" s="14">
+        <v>3.8694681663965098</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C13">
-        <v>1000</v>
-      </c>
-      <c r="D13">
-        <v>1000</v>
+        <v>1500</v>
+      </c>
+      <c r="D13" s="14">
+        <v>5.7153496665836103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14">
+        <v>64</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.32237017940107698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15">
+        <v>128</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.61734744042777401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16">
+        <v>196</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.93076078026863895</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.2073019624811601</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18">
+        <v>384</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1.79725648453455</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="C19">
-        <v>128</v>
-      </c>
-      <c r="D19">
-        <f>D4/5</f>
-        <v>0.17469709999999999</v>
+        <v>512</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2.3872110065879499</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C20">
-        <v>128</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20:D24" si="0">D5/5</f>
-        <v>0.12515850000000001</v>
+        <v>768</v>
+      </c>
+      <c r="D20" s="14">
+        <v>3.5671200506947298</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C21">
-        <v>1500</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1.0942082000000002</v>
+        <v>1000</v>
+      </c>
+      <c r="D21" s="14">
+        <v>4.6364126219165103</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="C22">
         <v>1500</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.91118019999999988</v>
+      <c r="D22" s="14">
+        <v>6.9409224736875696</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="C23">
-        <v>1000</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.75855079999999997</v>
+        <v>64</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.38930754944903501</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C24">
+        <v>128</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.62884462400417496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25">
+        <v>196</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.883352765719012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26">
+        <v>256</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1.10791877311445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27">
+        <v>384</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1.5869929222247301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28">
+        <v>512</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2.06606707133502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29">
+        <v>768</v>
+      </c>
+      <c r="D29" s="14">
+        <v>3.0242153695555798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30">
         <v>1000</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.61941959999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>51</v>
+      <c r="D30" s="14">
+        <v>3.8925372648179599</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="C31">
-        <v>25.468708882538891</v>
-      </c>
-      <c r="D31">
-        <v>2.0314564440981862E-2</v>
+        <v>1500</v>
+      </c>
+      <c r="D31" s="14">
+        <v>5.7639206597800001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C32">
-        <v>26.615850225217656</v>
-      </c>
-      <c r="D32">
-        <v>1.5806828571358057E-2</v>
+        <v>64</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.822909140799023</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C33">
-        <v>26.33975299412786</v>
-      </c>
-      <c r="D33">
-        <v>1.6032781107754593E-2</v>
+        <v>128</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.84004206681503502</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C34">
-        <v>22.973998649851932</v>
-      </c>
-      <c r="D34">
-        <v>2.6475916111960041E-2</v>
+        <v>196</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0.85824580070704704</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C35">
-        <v>23.006837790126468</v>
-      </c>
-      <c r="D35">
-        <v>2.3799811941421119E-2</v>
+        <v>256</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0.87430791884705905</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C36">
-        <v>27.641803043648572</v>
-      </c>
-      <c r="D36">
-        <v>2.0314564440981862E-2</v>
+        <v>384</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0.90857377087908298</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C37">
-        <v>28.105751672196035</v>
-      </c>
-      <c r="D37">
-        <v>1.7621004694522425E-2</v>
+        <v>512</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0.94283962291110701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38">
+        <v>768</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1.0113713269751501</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1.0734781837831899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40">
+        <v>1500</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1.2073291682832901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41">
+        <v>64</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0.49377394006834202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42">
+        <v>128</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0.81099312402879498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43">
+        <v>196</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1.14803850698677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44">
+        <v>256</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1.4454314919497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45">
+        <v>384</v>
+      </c>
+      <c r="D45" s="14">
+        <v>2.0798698598706</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46">
+        <v>512</v>
+      </c>
+      <c r="D46" s="14">
+        <v>2.71430822779151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47">
+        <v>768</v>
+      </c>
+      <c r="D47" s="14">
+        <v>3.9831849636333199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48" s="14">
+        <v>5.1331045054899596</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49">
+        <v>1500</v>
+      </c>
+      <c r="D49" s="14">
+        <v>7.6113793801809901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50">
+        <v>64</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0.41872351734039798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51">
+        <v>128</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0.79800580609558003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52">
+        <v>196</v>
+      </c>
+      <c r="D52" s="14">
+        <v>1.20099323789796</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53">
+        <v>256</v>
+      </c>
+      <c r="D53" s="14">
+        <v>1.5565703836059399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54">
+        <v>384</v>
+      </c>
+      <c r="D54" s="14">
+        <v>2.3151349611162999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55">
+        <v>512</v>
+      </c>
+      <c r="D55" s="14">
+        <v>3.0736995386266699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56">
+        <v>768</v>
+      </c>
+      <c r="D56" s="14">
+        <v>4.5908286936474001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="14">
+        <v>5.9657269903849297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58">
+        <v>1500</v>
+      </c>
+      <c r="D58" s="14">
+        <v>8.9288698712847907</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59">
+        <v>64</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0.45887697080818202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60">
+        <v>128</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0.78217551542408104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61">
+        <v>196</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1.12568021907847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62">
+        <v>256</v>
+      </c>
+      <c r="D62" s="14">
+        <v>1.42877260465588</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63">
+        <v>384</v>
+      </c>
+      <c r="D63" s="14">
+        <v>2.07536969388768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64">
+        <v>512</v>
+      </c>
+      <c r="D64" s="14">
+        <v>2.7219667831194698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65">
+        <v>768</v>
+      </c>
+      <c r="D65" s="14">
+        <v>4.0151609615830699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66">
+        <v>1000</v>
+      </c>
+      <c r="D66" s="14">
+        <v>5.1871181858157103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67">
+        <v>1500</v>
+      </c>
+      <c r="D67" s="14">
+        <v>7.7128880656274301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68">
+        <v>64</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0.82160716811588497</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69">
+        <v>128</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0.84086421895833496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70">
+        <v>196</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0.86132483547843897</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71">
+        <v>256</v>
+      </c>
+      <c r="D71" s="14">
+        <v>0.87937832064323596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72">
+        <v>384</v>
+      </c>
+      <c r="D72" s="14">
+        <v>0.91789242232813695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73">
+        <v>512</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0.95640652401303805</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74">
+        <v>768</v>
+      </c>
+      <c r="D74" s="14">
+        <v>1.0334347273828299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75">
+        <v>1000</v>
+      </c>
+      <c r="D75" s="14">
+        <v>1.1032415366867201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76">
+        <v>1500</v>
+      </c>
+      <c r="D76" s="13">
+        <v>1.2536872463933599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77">
+        <v>64</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0.60381478187869797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78">
+        <v>128</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0.87465642971373403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79">
+        <v>196</v>
+      </c>
+      <c r="D79" s="14">
+        <v>1.1624256805384501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80">
+        <v>256</v>
+      </c>
+      <c r="D80" s="14">
+        <v>1.4163397253837999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81">
+        <v>384</v>
+      </c>
+      <c r="D81" s="14">
+        <v>1.95802302105387</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82">
+        <v>512</v>
+      </c>
+      <c r="D82" s="14">
+        <v>2.4997063167239402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83">
+        <v>768</v>
+      </c>
+      <c r="D83" s="14">
+        <v>3.58307290806408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84">
+        <v>1000</v>
+      </c>
+      <c r="D84" s="14">
+        <v>4.5648738814660899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85">
+        <v>1500</v>
+      </c>
+      <c r="D85" s="14">
+        <v>6.6808242551773001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86">
+        <v>64</v>
+      </c>
+      <c r="D86" s="14">
+        <v>0.76821879832002105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87">
+        <v>128</v>
+      </c>
+      <c r="D87" s="14">
+        <v>1.06144031537287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88">
+        <v>196</v>
+      </c>
+      <c r="D88" s="14">
+        <v>1.37298817724152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89">
+        <v>256</v>
+      </c>
+      <c r="D89" s="14">
+        <v>1.6478833494785701</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90">
+        <v>384</v>
+      </c>
+      <c r="D90" s="14">
+        <v>2.2343263835842699</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91">
+        <v>512</v>
+      </c>
+      <c r="D91" s="14">
+        <v>2.8207694176899798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92">
+        <v>768</v>
+      </c>
+      <c r="D92" s="14">
+        <v>3.99365548590138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93">
+        <v>1000</v>
+      </c>
+      <c r="D93" s="14">
+        <v>5.0565834852179696</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94">
+        <v>1500</v>
+      </c>
+      <c r="D94" s="14">
+        <v>7.3473765871933701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95">
+        <v>64</v>
+      </c>
+      <c r="D95" s="14">
+        <v>0.50718406685245498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96">
+        <v>128</v>
+      </c>
+      <c r="D96" s="14">
+        <v>0.75727850009748998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97">
+        <v>196</v>
+      </c>
+      <c r="D97" s="14">
+        <v>1.0230038354203299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98">
+        <v>256</v>
+      </c>
+      <c r="D98" s="14">
+        <v>1.25746736658755</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99">
+        <v>384</v>
+      </c>
+      <c r="D99" s="14">
+        <v>1.75765623307762</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100">
+        <v>512</v>
+      </c>
+      <c r="D100" s="14">
+        <v>2.2578450995676902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101">
+        <v>768</v>
+      </c>
+      <c r="D101" s="14">
+        <v>3.2582228325478302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102">
+        <v>1000</v>
+      </c>
+      <c r="D102" s="14">
+        <v>4.1648151530610802</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103">
+        <v>1500</v>
+      </c>
+      <c r="D103" s="14">
+        <v>6.1186779127879101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104">
+        <v>64</v>
+      </c>
+      <c r="D104" s="14">
+        <v>2.9538409098267802</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105">
+        <v>128</v>
+      </c>
+      <c r="D105" s="14">
+        <v>2.9810412548030998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106">
+        <v>196</v>
+      </c>
+      <c r="D106" s="14">
+        <v>3.0099416213404302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107">
+        <v>256</v>
+      </c>
+      <c r="D107" s="14">
+        <v>3.0354419447557301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" t="s">
+        <v>189</v>
+      </c>
+      <c r="C108">
+        <v>384</v>
+      </c>
+      <c r="D108" s="14">
+        <v>3.0898426347083601</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109">
+        <v>512</v>
+      </c>
+      <c r="D109" s="14">
+        <v>3.1442433246610002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110">
+        <v>768</v>
+      </c>
+      <c r="D110" s="14">
+        <v>3.25304470456626</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>180</v>
+      </c>
+      <c r="B111" t="s">
+        <v>189</v>
+      </c>
+      <c r="C111">
+        <v>1000</v>
+      </c>
+      <c r="D111" s="14">
+        <v>3.3516459551054099</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>180</v>
+      </c>
+      <c r="B112" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112">
+        <v>1500</v>
+      </c>
+      <c r="D112" s="14">
+        <v>3.5641486502328901</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113">
+        <v>64</v>
+      </c>
+      <c r="D113" s="14">
+        <v>0.66410547370432005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114">
+        <v>128</v>
+      </c>
+      <c r="D114" s="14">
+        <v>1.02249521641375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115">
+        <v>196</v>
+      </c>
+      <c r="D115" s="14">
+        <v>1.4032843180425201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116">
+        <v>256</v>
+      </c>
+      <c r="D116" s="14">
+        <v>1.73927470183261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>180</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117">
+        <v>384</v>
+      </c>
+      <c r="D117" s="14">
+        <v>2.4560541872514698</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118">
+        <v>512</v>
+      </c>
+      <c r="D118" s="13">
+        <v>3.1728336726703299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119">
+        <v>768</v>
+      </c>
+      <c r="D119" s="13">
+        <v>4.6063926435080598</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120">
+        <v>1000</v>
+      </c>
+      <c r="D120" s="14">
+        <v>5.9055554608297403</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121">
+        <v>1500</v>
+      </c>
+      <c r="D121" s="14">
+        <v>8.7054753257471695</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122">
+        <v>64</v>
+      </c>
+      <c r="D122" s="14">
+        <v>0.84042712537789399</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>180</v>
+      </c>
+      <c r="B123" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123">
+        <v>128</v>
+      </c>
+      <c r="D123" s="14">
+        <v>1.22155737674423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>180</v>
+      </c>
+      <c r="B124" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124">
+        <v>196</v>
+      </c>
+      <c r="D124" s="14">
+        <v>1.62650826882096</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>180</v>
+      </c>
+      <c r="B125" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125">
+        <v>256</v>
+      </c>
+      <c r="D125" s="14">
+        <v>1.9838178794768999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126">
+        <v>384</v>
+      </c>
+      <c r="D126" s="14">
+        <v>2.74607838220957</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127">
+        <v>512</v>
+      </c>
+      <c r="D127" s="14">
+        <v>3.5083388849422401</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" t="s">
+        <v>190</v>
+      </c>
+      <c r="C128">
+        <v>768</v>
+      </c>
+      <c r="D128" s="14">
+        <v>5.0328598904075799</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129">
+        <v>1000</v>
+      </c>
+      <c r="D129" s="14">
+        <v>6.4144570516105501</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130">
+        <v>1500</v>
+      </c>
+      <c r="D130" s="14">
+        <v>9.39203714041005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" t="s">
+        <v>191</v>
+      </c>
+      <c r="C131">
+        <v>64</v>
+      </c>
+      <c r="D131" s="14">
+        <v>0.57673103462761699</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+      <c r="C132">
+        <v>128</v>
+      </c>
+      <c r="D132" s="13">
+        <v>0.91298727188056905</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>180</v>
+      </c>
+      <c r="B133" t="s">
+        <v>191</v>
+      </c>
+      <c r="C133">
+        <v>196</v>
+      </c>
+      <c r="D133" s="14">
+        <v>1.27025952396183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>180</v>
+      </c>
+      <c r="B134" t="s">
+        <v>191</v>
+      </c>
+      <c r="C134">
+        <v>256</v>
+      </c>
+      <c r="D134" s="13">
+        <v>1.58549974638647</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>180</v>
+      </c>
+      <c r="B135" t="s">
+        <v>191</v>
+      </c>
+      <c r="C135">
+        <v>384</v>
+      </c>
+      <c r="D135" s="14">
+        <v>2.2580122208923701</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" t="s">
+        <v>191</v>
+      </c>
+      <c r="C136">
+        <v>512</v>
+      </c>
+      <c r="D136" s="13">
+        <v>2.93052469539828</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" t="s">
+        <v>191</v>
+      </c>
+      <c r="C137">
+        <v>768</v>
+      </c>
+      <c r="D137" s="14">
+        <v>4.2755496444100798</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138" t="s">
+        <v>191</v>
+      </c>
+      <c r="C138">
+        <v>1000</v>
+      </c>
+      <c r="D138" s="14">
+        <v>5.4944785044520303</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139">
+        <v>1500</v>
+      </c>
+      <c r="D139" s="14">
+        <v>8.1214803579907198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>180</v>
+      </c>
+      <c r="B140" t="s">
+        <v>192</v>
+      </c>
+      <c r="C140">
+        <v>64</v>
+      </c>
+      <c r="D140" s="14">
+        <v>2.9337240917881999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>180</v>
+      </c>
+      <c r="B141" t="s">
+        <v>192</v>
+      </c>
+      <c r="C141">
+        <v>128</v>
+      </c>
+      <c r="D141" s="14">
+        <v>2.96181141388886</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>180</v>
+      </c>
+      <c r="B142" t="s">
+        <v>192</v>
+      </c>
+      <c r="C142">
+        <v>196</v>
+      </c>
+      <c r="D142" s="14">
+        <v>2.9916541936208101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" t="s">
+        <v>192</v>
+      </c>
+      <c r="C143">
+        <v>256</v>
+      </c>
+      <c r="D143" s="14">
+        <v>3.0179860580901798</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>180</v>
+      </c>
+      <c r="B144" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144">
+        <v>384</v>
+      </c>
+      <c r="D144" s="14">
+        <v>3.0741607022915001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>180</v>
+      </c>
+      <c r="B145" t="s">
+        <v>192</v>
+      </c>
+      <c r="C145">
+        <v>512</v>
+      </c>
+      <c r="D145" s="14">
+        <v>3.1303353464928199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>180</v>
+      </c>
+      <c r="B146" t="s">
+        <v>192</v>
+      </c>
+      <c r="C146">
+        <v>768</v>
+      </c>
+      <c r="D146" s="14">
+        <v>3.2426846348954599</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>180</v>
+      </c>
+      <c r="B147" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147">
+        <v>1000</v>
+      </c>
+      <c r="D147" s="14">
+        <v>3.3445011775103599</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>180</v>
+      </c>
+      <c r="B148" t="s">
+        <v>192</v>
+      </c>
+      <c r="C148">
+        <v>1500</v>
+      </c>
+      <c r="D148" s="14">
+        <v>3.5639333814217702</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>180</v>
+      </c>
+      <c r="B149" t="s">
+        <v>125</v>
+      </c>
+      <c r="C149">
+        <v>64</v>
+      </c>
+      <c r="D149" s="14">
+        <v>0.56132579836630503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>180</v>
+      </c>
+      <c r="B150" t="s">
+        <v>125</v>
+      </c>
+      <c r="C150">
+        <v>128</v>
+      </c>
+      <c r="D150" s="14">
+        <v>0.64388794490246004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151" t="s">
+        <v>125</v>
+      </c>
+      <c r="C151">
+        <v>196</v>
+      </c>
+      <c r="D151" s="14">
+        <v>0.73161022559712396</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>180</v>
+      </c>
+      <c r="B152" t="s">
+        <v>125</v>
+      </c>
+      <c r="C152">
+        <v>256</v>
+      </c>
+      <c r="D152" s="14">
+        <v>0.80901223797476995</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" t="s">
+        <v>125</v>
+      </c>
+      <c r="C153">
+        <v>384</v>
+      </c>
+      <c r="D153" s="14">
+        <v>0.97413653104707998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>180</v>
+      </c>
+      <c r="B154" t="s">
+        <v>125</v>
+      </c>
+      <c r="C154">
+        <v>512</v>
+      </c>
+      <c r="D154" s="14">
+        <v>1.13926082411939</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" t="s">
+        <v>125</v>
+      </c>
+      <c r="C155">
+        <v>768</v>
+      </c>
+      <c r="D155" s="14">
+        <v>1.4695094102640101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" t="s">
+        <v>125</v>
+      </c>
+      <c r="C156">
+        <v>1000</v>
+      </c>
+      <c r="D156" s="14">
+        <v>1.76879719145757</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" t="s">
+        <v>125</v>
+      </c>
+      <c r="C157">
+        <v>1500</v>
+      </c>
+      <c r="D157" s="13">
+        <v>2.4138139612712801</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>193</v>
+      </c>
+      <c r="B158" t="s">
+        <v>127</v>
+      </c>
+      <c r="C158">
+        <v>64</v>
+      </c>
+      <c r="D158">
+        <v>0.95948241735516404</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>193</v>
+      </c>
+      <c r="B159" t="s">
+        <v>127</v>
+      </c>
+      <c r="C159">
+        <v>128</v>
+      </c>
+      <c r="D159">
+        <v>1.5676436006262899</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>193</v>
+      </c>
+      <c r="B160" t="s">
+        <v>127</v>
+      </c>
+      <c r="C160">
+        <v>196</v>
+      </c>
+      <c r="D160">
+        <v>2.2138148578518702</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>193</v>
+      </c>
+      <c r="B161" t="s">
+        <v>127</v>
+      </c>
+      <c r="C161">
+        <v>256</v>
+      </c>
+      <c r="D161">
+        <v>2.7839659671685499</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>193</v>
+      </c>
+      <c r="B162" t="s">
+        <v>127</v>
+      </c>
+      <c r="C162">
+        <v>384</v>
+      </c>
+      <c r="D162">
+        <v>4.0002883337108104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>193</v>
+      </c>
+      <c r="B163" t="s">
+        <v>127</v>
+      </c>
+      <c r="C163">
+        <v>512</v>
+      </c>
+      <c r="D163">
+        <v>5.2166107002530699</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>193</v>
+      </c>
+      <c r="B164" t="s">
+        <v>127</v>
+      </c>
+      <c r="C164">
+        <v>768</v>
+      </c>
+      <c r="D164">
+        <v>7.6492554333375997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>193</v>
+      </c>
+      <c r="B165" t="s">
+        <v>127</v>
+      </c>
+      <c r="C165">
+        <v>1000</v>
+      </c>
+      <c r="D165">
+        <v>9.8538397226954402</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>193</v>
+      </c>
+      <c r="B166" t="s">
+        <v>127</v>
+      </c>
+      <c r="C166">
+        <v>1500</v>
+      </c>
+      <c r="D166">
+        <v>14.6050989670011</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>193</v>
+      </c>
+      <c r="B167" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167">
+        <v>64</v>
+      </c>
+      <c r="D167">
+        <v>0.89132980137667195</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>193</v>
+      </c>
+      <c r="B168" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168">
+        <v>128</v>
+      </c>
+      <c r="D168">
+        <v>1.58695221026302</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>193</v>
+      </c>
+      <c r="B169" t="s">
+        <v>181</v>
+      </c>
+      <c r="C169">
+        <v>196</v>
+      </c>
+      <c r="D169">
+        <v>2.3260510197047699</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>193</v>
+      </c>
+      <c r="B170" t="s">
+        <v>181</v>
+      </c>
+      <c r="C170">
+        <v>256</v>
+      </c>
+      <c r="D170">
+        <v>2.9781970280357202</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>193</v>
+      </c>
+      <c r="B171" t="s">
+        <v>181</v>
+      </c>
+      <c r="C171">
+        <v>384</v>
+      </c>
+      <c r="D171">
+        <v>4.3694418458084199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172" t="s">
+        <v>181</v>
+      </c>
+      <c r="C172">
+        <v>512</v>
+      </c>
+      <c r="D172">
+        <v>5.7606866635811196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B173" t="s">
+        <v>181</v>
+      </c>
+      <c r="C173">
+        <v>768</v>
+      </c>
+      <c r="D173">
+        <v>8.5431762991265305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B174" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174">
+        <v>1000</v>
+      </c>
+      <c r="D174">
+        <v>11.0648075313395</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175" t="s">
+        <v>181</v>
+      </c>
+      <c r="C175">
+        <v>1500</v>
+      </c>
+      <c r="D175">
+        <v>16.4993576007641</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>193</v>
+      </c>
+      <c r="B176" t="s">
+        <v>182</v>
+      </c>
+      <c r="C176">
+        <v>64</v>
+      </c>
+      <c r="D176">
+        <v>1.04103408206875</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>193</v>
+      </c>
+      <c r="B177" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177">
+        <v>128</v>
+      </c>
+      <c r="D177">
+        <v>1.64444721267565</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>193</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178">
+        <v>196</v>
+      </c>
+      <c r="D178">
+        <v>2.2855736639454798</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>193</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179">
+        <v>256</v>
+      </c>
+      <c r="D179">
+        <v>2.8512734738894498</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>193</v>
+      </c>
+      <c r="B180" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180">
+        <v>384</v>
+      </c>
+      <c r="D180">
+        <v>4.0580997351032497</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181">
+        <v>512</v>
+      </c>
+      <c r="D181">
+        <v>5.2649259963170403</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182">
+        <v>768</v>
+      </c>
+      <c r="D182">
+        <v>7.67857851874464</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183" t="s">
+        <v>182</v>
+      </c>
+      <c r="C183">
+        <v>1000</v>
+      </c>
+      <c r="D183">
+        <v>9.8659511171946495</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>193</v>
+      </c>
+      <c r="B184" t="s">
+        <v>182</v>
+      </c>
+      <c r="C184">
+        <v>1500</v>
+      </c>
+      <c r="D184">
+        <v>14.580116200060999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185" t="s">
+        <v>183</v>
+      </c>
+      <c r="C185">
+        <v>64</v>
+      </c>
+      <c r="D185">
+        <v>1.79533273592058</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186">
+        <v>128</v>
+      </c>
+      <c r="D186">
+        <v>1.8243989798028499</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187">
+        <v>196</v>
+      </c>
+      <c r="D187">
+        <v>1.85528186392775</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" t="s">
+        <v>183</v>
+      </c>
+      <c r="C188">
+        <v>256</v>
+      </c>
+      <c r="D188">
+        <v>1.8825314675673801</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" t="s">
+        <v>183</v>
+      </c>
+      <c r="C189">
+        <v>384</v>
+      </c>
+      <c r="D189">
+        <v>1.9406639553319001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>183</v>
+      </c>
+      <c r="C190">
+        <v>512</v>
+      </c>
+      <c r="D190">
+        <v>1.99879644309643</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>183</v>
+      </c>
+      <c r="C191">
+        <v>768</v>
+      </c>
+      <c r="D191">
+        <v>2.1150614186254901</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>183</v>
+      </c>
+      <c r="C192">
+        <v>1000</v>
+      </c>
+      <c r="D192">
+        <v>2.2204265526986902</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>183</v>
+      </c>
+      <c r="C193">
+        <v>1500</v>
+      </c>
+      <c r="D193">
+        <v>2.44750658302888</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>124</v>
+      </c>
+      <c r="C194">
+        <v>64</v>
+      </c>
+      <c r="D194">
+        <v>1.1473094368236001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>124</v>
+      </c>
+      <c r="C195">
+        <v>128</v>
+      </c>
+      <c r="D195">
+        <v>1.9579591921141499</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196" t="s">
+        <v>124</v>
+      </c>
+      <c r="C196">
+        <v>196</v>
+      </c>
+      <c r="D196">
+        <v>2.8192745571103601</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>193</v>
+      </c>
+      <c r="B197" t="s">
+        <v>124</v>
+      </c>
+      <c r="C197">
+        <v>256</v>
+      </c>
+      <c r="D197">
+        <v>3.5792587026952498</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>193</v>
+      </c>
+      <c r="B198" t="s">
+        <v>124</v>
+      </c>
+      <c r="C198">
+        <v>384</v>
+      </c>
+      <c r="D198">
+        <v>5.2005582132763397</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>193</v>
+      </c>
+      <c r="B199" t="s">
+        <v>124</v>
+      </c>
+      <c r="C199">
+        <v>512</v>
+      </c>
+      <c r="D199">
+        <v>6.8218577238574403</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>193</v>
+      </c>
+      <c r="B200" t="s">
+        <v>124</v>
+      </c>
+      <c r="C200">
+        <v>768</v>
+      </c>
+      <c r="D200">
+        <v>10.0644567450196</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>193</v>
+      </c>
+      <c r="B201" t="s">
+        <v>124</v>
+      </c>
+      <c r="C201">
+        <v>1000</v>
+      </c>
+      <c r="D201">
+        <v>13.0030621079478</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>193</v>
+      </c>
+      <c r="B202" t="s">
+        <v>124</v>
+      </c>
+      <c r="C202">
+        <v>1500</v>
+      </c>
+      <c r="D202">
+        <v>19.3362633211553</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>193</v>
+      </c>
+      <c r="B203" t="s">
+        <v>184</v>
+      </c>
+      <c r="C203">
+        <v>64</v>
+      </c>
+      <c r="D203">
+        <v>1.0924008902106299</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>193</v>
+      </c>
+      <c r="B204" t="s">
+        <v>184</v>
+      </c>
+      <c r="C204">
+        <v>128</v>
+      </c>
+      <c r="D204">
+        <v>2.0015637180080499</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>193</v>
+      </c>
+      <c r="B205" t="s">
+        <v>184</v>
+      </c>
+      <c r="C205">
+        <v>196</v>
+      </c>
+      <c r="D205">
+        <v>2.96754922254281</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>193</v>
+      </c>
+      <c r="B206" t="s">
+        <v>184</v>
+      </c>
+      <c r="C206">
+        <v>256</v>
+      </c>
+      <c r="D206">
+        <v>3.8198893736028898</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>193</v>
+      </c>
+      <c r="B207" t="s">
+        <v>184</v>
+      </c>
+      <c r="C207">
+        <v>384</v>
+      </c>
+      <c r="D207">
+        <v>5.6382150291977204</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>193</v>
+      </c>
+      <c r="B208" t="s">
+        <v>184</v>
+      </c>
+      <c r="C208">
+        <v>512</v>
+      </c>
+      <c r="D208">
+        <v>7.4565406847925599</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>193</v>
+      </c>
+      <c r="B209" t="s">
+        <v>184</v>
+      </c>
+      <c r="C209">
+        <v>768</v>
+      </c>
+      <c r="D209">
+        <v>11.093191995982201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>193</v>
+      </c>
+      <c r="B210" t="s">
+        <v>184</v>
+      </c>
+      <c r="C210">
+        <v>1000</v>
+      </c>
+      <c r="D210">
+        <v>14.388907246747801</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>193</v>
+      </c>
+      <c r="B211" t="s">
+        <v>184</v>
+      </c>
+      <c r="C211">
+        <v>1500</v>
+      </c>
+      <c r="D211">
+        <v>21.4917418389152</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>193</v>
+      </c>
+      <c r="B212" t="s">
+        <v>185</v>
+      </c>
+      <c r="C212">
+        <v>64</v>
+      </c>
+      <c r="D212">
+        <v>1.1685339294330701</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>193</v>
+      </c>
+      <c r="B213" t="s">
+        <v>185</v>
+      </c>
+      <c r="C213">
+        <v>128</v>
+      </c>
+      <c r="D213">
+        <v>1.98763706191099</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>193</v>
+      </c>
+      <c r="B214" t="s">
+        <v>185</v>
+      </c>
+      <c r="C214">
+        <v>196</v>
+      </c>
+      <c r="D214">
+        <v>2.8579341401687799</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>193</v>
+      </c>
+      <c r="B215" t="s">
+        <v>185</v>
+      </c>
+      <c r="C215">
+        <v>256</v>
+      </c>
+      <c r="D215">
+        <v>3.6258433268668302</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>193</v>
+      </c>
+      <c r="B216" t="s">
+        <v>185</v>
+      </c>
+      <c r="C216">
+        <v>384</v>
+      </c>
+      <c r="D216">
+        <v>5.2640495918226602</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>193</v>
+      </c>
+      <c r="B217" t="s">
+        <v>185</v>
+      </c>
+      <c r="C217">
+        <v>512</v>
+      </c>
+      <c r="D217">
+        <v>6.9022558567785</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>193</v>
+      </c>
+      <c r="B218" t="s">
+        <v>185</v>
+      </c>
+      <c r="C218">
+        <v>768</v>
+      </c>
+      <c r="D218">
+        <v>10.1786683866901</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>193</v>
+      </c>
+      <c r="B219" t="s">
+        <v>185</v>
+      </c>
+      <c r="C219">
+        <v>1000</v>
+      </c>
+      <c r="D219">
+        <v>13.147917241922601</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>193</v>
+      </c>
+      <c r="B220" t="s">
+        <v>185</v>
+      </c>
+      <c r="C220">
+        <v>1500</v>
+      </c>
+      <c r="D220">
+        <v>19.5471604644063</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>193</v>
+      </c>
+      <c r="B221" t="s">
+        <v>186</v>
+      </c>
+      <c r="C221">
+        <v>64</v>
+      </c>
+      <c r="D221">
+        <v>1.8457154280199699</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>193</v>
+      </c>
+      <c r="B222" t="s">
+        <v>186</v>
+      </c>
+      <c r="C222">
+        <v>128</v>
+      </c>
+      <c r="D222">
+        <v>1.8835008518055301</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>193</v>
+      </c>
+      <c r="B223" t="s">
+        <v>186</v>
+      </c>
+      <c r="C223">
+        <v>196</v>
+      </c>
+      <c r="D223">
+        <v>1.92364786457769</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>193</v>
+      </c>
+      <c r="B224" t="s">
+        <v>186</v>
+      </c>
+      <c r="C224">
+        <v>256</v>
+      </c>
+      <c r="D224">
+        <v>1.9590716993766499</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>193</v>
+      </c>
+      <c r="B225" t="s">
+        <v>186</v>
+      </c>
+      <c r="C225">
+        <v>384</v>
+      </c>
+      <c r="D225">
+        <v>2.03464254694777</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>193</v>
+      </c>
+      <c r="B226" t="s">
+        <v>186</v>
+      </c>
+      <c r="C226">
+        <v>512</v>
+      </c>
+      <c r="D226">
+        <v>2.1102133945189001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>193</v>
+      </c>
+      <c r="B227" t="s">
+        <v>186</v>
+      </c>
+      <c r="C227">
+        <v>768</v>
+      </c>
+      <c r="D227">
+        <v>2.2613550896611398</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>193</v>
+      </c>
+      <c r="B228" t="s">
+        <v>186</v>
+      </c>
+      <c r="C228">
+        <v>1000</v>
+      </c>
+      <c r="D228">
+        <v>2.3983272508838098</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>193</v>
+      </c>
+      <c r="B229" t="s">
+        <v>186</v>
+      </c>
+      <c r="C229">
+        <v>1500</v>
+      </c>
+      <c r="D229">
+        <v>2.6935258742085102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>193</v>
+      </c>
+      <c r="B230" t="s">
+        <v>194</v>
+      </c>
+      <c r="C230">
+        <v>64</v>
+      </c>
+      <c r="D230">
+        <v>929.51652998775899</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>193</v>
+      </c>
+      <c r="B231" t="s">
+        <v>194</v>
+      </c>
+      <c r="C231">
+        <v>128</v>
+      </c>
+      <c r="D231">
+        <v>930.22850061199495</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>193</v>
+      </c>
+      <c r="B232" t="s">
+        <v>194</v>
+      </c>
+      <c r="C232">
+        <v>196</v>
+      </c>
+      <c r="D232">
+        <v>930.98496940024495</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>193</v>
+      </c>
+      <c r="B233" t="s">
+        <v>195</v>
+      </c>
+      <c r="C233">
+        <v>64</v>
+      </c>
+      <c r="D233">
+        <v>2287.3303200308401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>193</v>
+      </c>
+      <c r="B234" t="s">
+        <v>195</v>
+      </c>
+      <c r="C234">
+        <v>128</v>
+      </c>
+      <c r="D234">
+        <v>2288.14000578369</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>193</v>
+      </c>
+      <c r="B235" t="s">
+        <v>195</v>
+      </c>
+      <c r="C235">
+        <v>196</v>
+      </c>
+      <c r="D235">
+        <v>2289.0002968960798</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>193</v>
+      </c>
+      <c r="B236" t="s">
+        <v>195</v>
+      </c>
+      <c r="C236">
+        <v>256</v>
+      </c>
+      <c r="D236">
+        <v>2289.7593772893701</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>193</v>
+      </c>
+      <c r="B237" t="s">
+        <v>126</v>
+      </c>
+      <c r="C237">
+        <v>64</v>
+      </c>
+      <c r="D237">
+        <v>1.4906573378368999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>193</v>
+      </c>
+      <c r="B238" t="s">
+        <v>126</v>
+      </c>
+      <c r="C238">
+        <v>128</v>
+      </c>
+      <c r="D238">
+        <v>2.1500763769214801</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>193</v>
+      </c>
+      <c r="B239" t="s">
+        <v>126</v>
+      </c>
+      <c r="C239">
+        <v>196</v>
+      </c>
+      <c r="D239">
+        <v>2.8507091059488499</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>193</v>
+      </c>
+      <c r="B240" t="s">
+        <v>126</v>
+      </c>
+      <c r="C240">
+        <v>256</v>
+      </c>
+      <c r="D240">
+        <v>3.4689144550906401</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>193</v>
+      </c>
+      <c r="B241" t="s">
+        <v>126</v>
+      </c>
+      <c r="C241">
+        <v>384</v>
+      </c>
+      <c r="D241">
+        <v>4.7877525332598001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>193</v>
+      </c>
+      <c r="B242" t="s">
+        <v>126</v>
+      </c>
+      <c r="C242">
+        <v>512</v>
+      </c>
+      <c r="D242">
+        <v>6.1065906114289596</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>193</v>
+      </c>
+      <c r="B243" t="s">
+        <v>126</v>
+      </c>
+      <c r="C243">
+        <v>768</v>
+      </c>
+      <c r="D243">
+        <v>8.7442667677672805</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>193</v>
+      </c>
+      <c r="B244" t="s">
+        <v>126</v>
+      </c>
+      <c r="C244">
+        <v>1000</v>
+      </c>
+      <c r="D244">
+        <v>11.134660784448799</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>193</v>
+      </c>
+      <c r="B245" t="s">
+        <v>126</v>
+      </c>
+      <c r="C245">
+        <v>1500</v>
+      </c>
+      <c r="D245">
+        <v>16.286372027297102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>193</v>
+      </c>
+      <c r="B246" t="s">
+        <v>187</v>
+      </c>
+      <c r="C246">
+        <v>64</v>
+      </c>
+      <c r="D246">
+        <v>2.34557287614845</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>193</v>
+      </c>
+      <c r="B247" t="s">
+        <v>187</v>
+      </c>
+      <c r="C247">
+        <v>128</v>
+      </c>
+      <c r="D247">
+        <v>3.0445497247634101</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>193</v>
+      </c>
+      <c r="B248" t="s">
+        <v>187</v>
+      </c>
+      <c r="C248">
+        <v>196</v>
+      </c>
+      <c r="D248">
+        <v>3.7872126264168</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>193</v>
+      </c>
+      <c r="B249" t="s">
+        <v>187</v>
+      </c>
+      <c r="C249">
+        <v>256</v>
+      </c>
+      <c r="D249">
+        <v>4.4425034219933197</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>193</v>
+      </c>
+      <c r="B250" t="s">
+        <v>187</v>
+      </c>
+      <c r="C250">
+        <v>384</v>
+      </c>
+      <c r="D250">
+        <v>5.8404571192232302</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>193</v>
+      </c>
+      <c r="B251" t="s">
+        <v>187</v>
+      </c>
+      <c r="C251">
+        <v>512</v>
+      </c>
+      <c r="D251">
+        <v>7.2384108164531398</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>193</v>
+      </c>
+      <c r="B252" t="s">
+        <v>187</v>
+      </c>
+      <c r="C252">
+        <v>768</v>
+      </c>
+      <c r="D252">
+        <v>10.0343182109129</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>193</v>
+      </c>
+      <c r="B253" t="s">
+        <v>187</v>
+      </c>
+      <c r="C253">
+        <v>1000</v>
+      </c>
+      <c r="D253">
+        <v>12.5681092871421</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>193</v>
+      </c>
+      <c r="B254" t="s">
+        <v>187</v>
+      </c>
+      <c r="C254">
+        <v>1500</v>
+      </c>
+      <c r="D254">
+        <v>18.028865916946501</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>193</v>
+      </c>
+      <c r="B255" t="s">
+        <v>188</v>
+      </c>
+      <c r="C255">
+        <v>64</v>
+      </c>
+      <c r="D255">
+        <v>1.21709107918344</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>193</v>
+      </c>
+      <c r="B256" t="s">
+        <v>188</v>
+      </c>
+      <c r="C256">
+        <v>128</v>
+      </c>
+      <c r="D256">
+        <v>1.84387641434184</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>193</v>
+      </c>
+      <c r="B257" t="s">
+        <v>188</v>
+      </c>
+      <c r="C257">
+        <v>196</v>
+      </c>
+      <c r="D257">
+        <v>2.50983583294764</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>193</v>
+      </c>
+      <c r="B258" t="s">
+        <v>188</v>
+      </c>
+      <c r="C258">
+        <v>256</v>
+      </c>
+      <c r="D258">
+        <v>3.0974470846586302</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>193</v>
+      </c>
+      <c r="B259" t="s">
+        <v>188</v>
+      </c>
+      <c r="C259">
+        <v>384</v>
+      </c>
+      <c r="D259">
+        <v>4.3510177549754303</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>193</v>
+      </c>
+      <c r="B260" t="s">
+        <v>188</v>
+      </c>
+      <c r="C260">
+        <v>512</v>
+      </c>
+      <c r="D260">
+        <v>5.6045884252922198</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>193</v>
+      </c>
+      <c r="B261" t="s">
+        <v>188</v>
+      </c>
+      <c r="C261">
+        <v>768</v>
+      </c>
+      <c r="D261">
+        <v>8.1117297659258103</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>193</v>
+      </c>
+      <c r="B262" t="s">
+        <v>188</v>
+      </c>
+      <c r="C262">
+        <v>1000</v>
+      </c>
+      <c r="D262">
+        <v>10.3838266058749</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>193</v>
+      </c>
+      <c r="B263" t="s">
+        <v>188</v>
+      </c>
+      <c r="C263">
+        <v>1500</v>
+      </c>
+      <c r="D263">
+        <v>15.280587036799901</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>193</v>
+      </c>
+      <c r="B264" t="s">
+        <v>189</v>
+      </c>
+      <c r="C264">
+        <v>64</v>
+      </c>
+      <c r="D264">
+        <v>10.445602241282501</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>193</v>
+      </c>
+      <c r="B265" t="s">
+        <v>189</v>
+      </c>
+      <c r="C265">
+        <v>128</v>
+      </c>
+      <c r="D265">
+        <v>10.4924767944539</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>193</v>
+      </c>
+      <c r="B266" t="s">
+        <v>189</v>
+      </c>
+      <c r="C266">
+        <v>196</v>
+      </c>
+      <c r="D266">
+        <v>10.542281007198399</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>193</v>
+      </c>
+      <c r="B267" t="s">
+        <v>189</v>
+      </c>
+      <c r="C267">
+        <v>256</v>
+      </c>
+      <c r="D267">
+        <v>10.586225900796601</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>193</v>
+      </c>
+      <c r="B268" t="s">
+        <v>189</v>
+      </c>
+      <c r="C268">
+        <v>384</v>
+      </c>
+      <c r="D268">
+        <v>10.679975007139401</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>193</v>
+      </c>
+      <c r="B269" t="s">
+        <v>189</v>
+      </c>
+      <c r="C269">
+        <v>512</v>
+      </c>
+      <c r="D269">
+        <v>10.7737241134821</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>193</v>
+      </c>
+      <c r="B270" t="s">
+        <v>189</v>
+      </c>
+      <c r="C270">
+        <v>768</v>
+      </c>
+      <c r="D270">
+        <v>10.961222326167601</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>193</v>
+      </c>
+      <c r="B271" t="s">
+        <v>189</v>
+      </c>
+      <c r="C271">
+        <v>1000</v>
+      </c>
+      <c r="D271">
+        <v>11.131142581413799</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>193</v>
+      </c>
+      <c r="B272" t="s">
+        <v>189</v>
+      </c>
+      <c r="C272">
+        <v>1500</v>
+      </c>
+      <c r="D272">
+        <v>11.497350028065201</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>193</v>
+      </c>
+      <c r="B273" t="s">
+        <v>123</v>
+      </c>
+      <c r="C273">
+        <v>64</v>
+      </c>
+      <c r="D273">
+        <v>1.66343345577012</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>193</v>
+      </c>
+      <c r="B274" t="s">
+        <v>123</v>
+      </c>
+      <c r="C274">
+        <v>128</v>
+      </c>
+      <c r="D274">
+        <v>2.5396391101832601</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>193</v>
+      </c>
+      <c r="B275" t="s">
+        <v>123</v>
+      </c>
+      <c r="C275">
+        <v>196</v>
+      </c>
+      <c r="D275">
+        <v>3.4706076179972198</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>193</v>
+      </c>
+      <c r="B276" t="s">
+        <v>123</v>
+      </c>
+      <c r="C276">
+        <v>256</v>
+      </c>
+      <c r="D276">
+        <v>4.2920504190095397</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>193</v>
+      </c>
+      <c r="B277" t="s">
+        <v>123</v>
+      </c>
+      <c r="C277">
+        <v>384</v>
+      </c>
+      <c r="D277">
+        <v>6.0444617278358201</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>193</v>
+      </c>
+      <c r="B278" t="s">
+        <v>123</v>
+      </c>
+      <c r="C278">
+        <v>512</v>
+      </c>
+      <c r="D278">
+        <v>7.7968730366620997</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>193</v>
+      </c>
+      <c r="B279" t="s">
+        <v>123</v>
+      </c>
+      <c r="C279">
+        <v>768</v>
+      </c>
+      <c r="D279">
+        <v>11.301695654314599</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>193</v>
+      </c>
+      <c r="B280" t="s">
+        <v>123</v>
+      </c>
+      <c r="C280">
+        <v>1000</v>
+      </c>
+      <c r="D280">
+        <v>14.477941151562201</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>193</v>
+      </c>
+      <c r="B281" t="s">
+        <v>123</v>
+      </c>
+      <c r="C281">
+        <v>1500</v>
+      </c>
+      <c r="D281">
+        <v>21.323297826664898</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>193</v>
+      </c>
+      <c r="B282" t="s">
+        <v>190</v>
+      </c>
+      <c r="C282">
+        <v>64</v>
+      </c>
+      <c r="D282">
+        <v>2.50058243803484</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>193</v>
+      </c>
+      <c r="B283" t="s">
+        <v>190</v>
+      </c>
+      <c r="C283">
+        <v>128</v>
+      </c>
+      <c r="D283">
+        <v>3.4140759436331201</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>193</v>
+      </c>
+      <c r="B284" t="s">
+        <v>190</v>
+      </c>
+      <c r="C284">
+        <v>196</v>
+      </c>
+      <c r="D284">
+        <v>4.3846627933312901</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>193</v>
+      </c>
+      <c r="B285" t="s">
+        <v>190</v>
+      </c>
+      <c r="C285">
+        <v>256</v>
+      </c>
+      <c r="D285">
+        <v>5.2410629548296797</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>193</v>
+      </c>
+      <c r="B286" t="s">
+        <v>190</v>
+      </c>
+      <c r="C286">
+        <v>384</v>
+      </c>
+      <c r="D286">
+        <v>7.0680499660262504</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>193</v>
+      </c>
+      <c r="B287" t="s">
+        <v>190</v>
+      </c>
+      <c r="C287">
+        <v>512</v>
+      </c>
+      <c r="D287">
+        <v>8.8950369772228104</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>193</v>
+      </c>
+      <c r="B288" t="s">
+        <v>190</v>
+      </c>
+      <c r="C288">
+        <v>768</v>
+      </c>
+      <c r="D288">
+        <v>12.5490109996159</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>193</v>
+      </c>
+      <c r="B289" t="s">
+        <v>190</v>
+      </c>
+      <c r="C289">
+        <v>1000</v>
+      </c>
+      <c r="D289">
+        <v>15.8604249574097</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>193</v>
+      </c>
+      <c r="B290" t="s">
+        <v>190</v>
+      </c>
+      <c r="C290">
+        <v>1500</v>
+      </c>
+      <c r="D290">
+        <v>22.9970929698963</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>193</v>
+      </c>
+      <c r="B291" t="s">
+        <v>191</v>
+      </c>
+      <c r="C291">
+        <v>64</v>
+      </c>
+      <c r="D291">
+        <v>1.31075793951688</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>193</v>
+      </c>
+      <c r="B292" t="s">
+        <v>191</v>
+      </c>
+      <c r="C292">
+        <v>128</v>
+      </c>
+      <c r="D292">
+        <v>2.1605602615486101</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>193</v>
+      </c>
+      <c r="B293" t="s">
+        <v>191</v>
+      </c>
+      <c r="C293">
+        <v>196</v>
+      </c>
+      <c r="D293">
+        <v>3.0634752287073201</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>193</v>
+      </c>
+      <c r="B294" t="s">
+        <v>191</v>
+      </c>
+      <c r="C294">
+        <v>256</v>
+      </c>
+      <c r="D294">
+        <v>3.8601649056120602</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>193</v>
+      </c>
+      <c r="B295" t="s">
+        <v>191</v>
+      </c>
+      <c r="C295">
+        <v>384</v>
+      </c>
+      <c r="D295">
+        <v>5.5597695496755204</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>193</v>
+      </c>
+      <c r="B296" t="s">
+        <v>191</v>
+      </c>
+      <c r="C296">
+        <v>512</v>
+      </c>
+      <c r="D296">
+        <v>7.2593741937389797</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>193</v>
+      </c>
+      <c r="B297" t="s">
+        <v>191</v>
+      </c>
+      <c r="C297">
+        <v>768</v>
+      </c>
+      <c r="D297">
+        <v>10.658583481865801</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>193</v>
+      </c>
+      <c r="B298" t="s">
+        <v>191</v>
+      </c>
+      <c r="C298">
+        <v>1000</v>
+      </c>
+      <c r="D298">
+        <v>13.739116899230901</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>193</v>
+      </c>
+      <c r="B299" t="s">
+        <v>191</v>
+      </c>
+      <c r="C299">
+        <v>1500</v>
+      </c>
+      <c r="D299">
+        <v>20.378197540103699</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>193</v>
+      </c>
+      <c r="B300" t="s">
+        <v>192</v>
+      </c>
+      <c r="C300">
+        <v>64</v>
+      </c>
+      <c r="D300">
+        <v>10.303911392529701</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>193</v>
+      </c>
+      <c r="B301" t="s">
+        <v>192</v>
+      </c>
+      <c r="C301">
+        <v>128</v>
+      </c>
+      <c r="D301">
+        <v>10.3582750593309</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>193</v>
+      </c>
+      <c r="B302" t="s">
+        <v>192</v>
+      </c>
+      <c r="C302">
+        <v>196</v>
+      </c>
+      <c r="D302">
+        <v>10.4160364553072</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>193</v>
+      </c>
+      <c r="B303" t="s">
+        <v>192</v>
+      </c>
+      <c r="C303">
+        <v>256</v>
+      </c>
+      <c r="D303">
+        <v>10.4670023929334</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>193</v>
+      </c>
+      <c r="B304" t="s">
+        <v>192</v>
+      </c>
+      <c r="C304">
+        <v>384</v>
+      </c>
+      <c r="D304">
+        <v>10.575729726535901</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>193</v>
+      </c>
+      <c r="B305" t="s">
+        <v>192</v>
+      </c>
+      <c r="C305">
+        <v>512</v>
+      </c>
+      <c r="D305">
+        <v>10.684457060138399</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>193</v>
+      </c>
+      <c r="B306" t="s">
+        <v>192</v>
+      </c>
+      <c r="C306">
+        <v>768</v>
+      </c>
+      <c r="D306">
+        <v>10.9019117273434</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>193</v>
+      </c>
+      <c r="B307" t="s">
+        <v>192</v>
+      </c>
+      <c r="C307">
+        <v>1000</v>
+      </c>
+      <c r="D307">
+        <v>11.098980019497899</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>193</v>
+      </c>
+      <c r="B308" t="s">
+        <v>192</v>
+      </c>
+      <c r="C308">
+        <v>1500</v>
+      </c>
+      <c r="D308">
+        <v>11.523696166382701</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>193</v>
+      </c>
+      <c r="B309" t="s">
+        <v>196</v>
+      </c>
+      <c r="C309">
+        <v>64</v>
+      </c>
+      <c r="D309">
+        <v>38.664449204406303</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>193</v>
+      </c>
+      <c r="B310" t="s">
+        <v>196</v>
+      </c>
+      <c r="C310">
+        <v>128</v>
+      </c>
+      <c r="D310">
+        <v>38.7025397796817</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>193</v>
+      </c>
+      <c r="B311" t="s">
+        <v>196</v>
+      </c>
+      <c r="C311">
+        <v>196</v>
+      </c>
+      <c r="D311">
+        <v>38.743011015911797</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>193</v>
+      </c>
+      <c r="B312" t="s">
+        <v>197</v>
+      </c>
+      <c r="C312">
+        <v>64</v>
+      </c>
+      <c r="D312">
+        <v>58.414276074802302</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>193</v>
+      </c>
+      <c r="B313" t="s">
+        <v>197</v>
+      </c>
+      <c r="C313">
+        <v>128</v>
+      </c>
+      <c r="D313">
+        <v>58.381764025448199</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>193</v>
+      </c>
+      <c r="B314" t="s">
+        <v>197</v>
+      </c>
+      <c r="C314">
+        <v>196</v>
+      </c>
+      <c r="D314">
+        <v>58.347219973009402</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>193</v>
+      </c>
+      <c r="B315" t="s">
+        <v>197</v>
+      </c>
+      <c r="C315">
+        <v>256</v>
+      </c>
+      <c r="D315">
+        <v>58.316739926739899</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>193</v>
+      </c>
+      <c r="B316" t="s">
+        <v>125</v>
+      </c>
+      <c r="C316">
+        <v>64</v>
+      </c>
+      <c r="D316">
+        <v>11.816615736956701</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>193</v>
+      </c>
+      <c r="B317" t="s">
+        <v>125</v>
+      </c>
+      <c r="C317">
+        <v>128</v>
+      </c>
+      <c r="D317">
+        <v>12.002103870217001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>193</v>
+      </c>
+      <c r="B318" t="s">
+        <v>125</v>
+      </c>
+      <c r="C318">
+        <v>196</v>
+      </c>
+      <c r="D318">
+        <v>12.199185011806</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>193</v>
+      </c>
+      <c r="B319" t="s">
+        <v>125</v>
+      </c>
+      <c r="C319">
+        <v>256</v>
+      </c>
+      <c r="D319">
+        <v>12.3730801367374</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>193</v>
+      </c>
+      <c r="B320" t="s">
+        <v>125</v>
+      </c>
+      <c r="C320">
+        <v>384</v>
+      </c>
+      <c r="D320">
+        <v>12.7440564032579</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>193</v>
+      </c>
+      <c r="B321" t="s">
+        <v>125</v>
+      </c>
+      <c r="C321">
+        <v>512</v>
+      </c>
+      <c r="D321">
+        <v>13.115032669778399</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>193</v>
+      </c>
+      <c r="B322" t="s">
+        <v>125</v>
+      </c>
+      <c r="C322">
+        <v>768</v>
+      </c>
+      <c r="D322">
+        <v>13.8569852028194</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>193</v>
+      </c>
+      <c r="B323" t="s">
+        <v>125</v>
+      </c>
+      <c r="C323">
+        <v>1000</v>
+      </c>
+      <c r="D323">
+        <v>14.5293796858878</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>193</v>
+      </c>
+      <c r="B324" t="s">
+        <v>125</v>
+      </c>
+      <c r="C324">
+        <v>1500</v>
+      </c>
+      <c r="D324">
+        <v>15.9785057269834</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>180</v>
+      </c>
+      <c r="B326" t="s">
+        <v>131</v>
+      </c>
+      <c r="C326">
+        <v>64</v>
+      </c>
+      <c r="D326">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>180</v>
+      </c>
+      <c r="B327" t="s">
+        <v>131</v>
+      </c>
+      <c r="C327">
+        <v>1500</v>
+      </c>
+      <c r="D327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>180</v>
+      </c>
+      <c r="B328" t="s">
+        <v>132</v>
+      </c>
+      <c r="C328">
+        <v>64</v>
+      </c>
+      <c r="D328">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>180</v>
+      </c>
+      <c r="B329" t="s">
+        <v>132</v>
+      </c>
+      <c r="C329">
+        <v>1500</v>
+      </c>
+      <c r="D329">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>163</v>
+      </c>
+      <c r="B337" t="s">
+        <v>123</v>
+      </c>
+      <c r="C337">
+        <v>128</v>
+      </c>
+      <c r="D337">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>163</v>
+      </c>
+      <c r="B338" t="s">
+        <v>124</v>
+      </c>
+      <c r="C338">
+        <v>128</v>
+      </c>
+      <c r="D338">
+        <f t="shared" ref="D338:D342" si="0">0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>163</v>
+      </c>
+      <c r="B339" t="s">
+        <v>126</v>
+      </c>
+      <c r="C339">
+        <v>1500</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>163</v>
+      </c>
+      <c r="B340" t="s">
+        <v>127</v>
+      </c>
+      <c r="C340">
+        <v>1500</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>163</v>
+      </c>
+      <c r="B341" t="s">
+        <v>126</v>
+      </c>
+      <c r="C341">
+        <v>1000</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>163</v>
+      </c>
+      <c r="B342" t="s">
+        <v>127</v>
+      </c>
+      <c r="C342">
+        <v>1000</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>198</v>
+      </c>
+      <c r="B346" t="s">
+        <v>199</v>
+      </c>
+      <c r="C346">
+        <v>64</v>
+      </c>
+      <c r="D346">
+        <v>518.22</v>
+      </c>
+      <c r="E346">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>198</v>
+      </c>
+      <c r="B347" t="s">
+        <v>199</v>
+      </c>
+      <c r="C347">
+        <v>128</v>
+      </c>
+      <c r="D347">
+        <v>685.97</v>
+      </c>
+      <c r="E347">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>198</v>
+      </c>
+      <c r="B348" t="s">
+        <v>199</v>
+      </c>
+      <c r="C348">
+        <v>196</v>
+      </c>
+      <c r="D348">
+        <v>780.53</v>
+      </c>
+      <c r="E348">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>198</v>
+      </c>
+      <c r="B349" t="s">
+        <v>199</v>
+      </c>
+      <c r="C349">
+        <v>256</v>
+      </c>
+      <c r="D349">
+        <v>818.36</v>
+      </c>
+      <c r="E349">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>198</v>
+      </c>
+      <c r="B350" t="s">
+        <v>199</v>
+      </c>
+      <c r="C350">
+        <v>384</v>
+      </c>
+      <c r="D350">
+        <v>859.3</v>
+      </c>
+      <c r="E350">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>198</v>
+      </c>
+      <c r="B351" t="s">
+        <v>199</v>
+      </c>
+      <c r="C351">
+        <v>512</v>
+      </c>
+      <c r="D351">
+        <v>897.27</v>
+      </c>
+      <c r="E351">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>198</v>
+      </c>
+      <c r="B352" t="s">
+        <v>199</v>
+      </c>
+      <c r="C352">
+        <v>768</v>
+      </c>
+      <c r="D352">
+        <v>927.25</v>
+      </c>
+      <c r="E352">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>198</v>
+      </c>
+      <c r="B353" t="s">
+        <v>199</v>
+      </c>
+      <c r="C353">
+        <v>1000</v>
+      </c>
+      <c r="D353">
+        <v>954.26</v>
+      </c>
+      <c r="E353">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>198</v>
+      </c>
+      <c r="B354" t="s">
+        <v>199</v>
+      </c>
+      <c r="C354">
+        <v>1500</v>
+      </c>
+      <c r="D354">
+        <v>981.99</v>
+      </c>
+      <c r="E354">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>200</v>
+      </c>
+      <c r="B358" t="s">
+        <v>128</v>
+      </c>
+      <c r="C358">
+        <v>128</v>
+      </c>
+      <c r="D358">
+        <v>24.56</v>
+      </c>
+      <c r="E358">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>200</v>
+      </c>
+      <c r="B359" t="s">
+        <v>128</v>
+      </c>
+      <c r="C359">
+        <v>512</v>
+      </c>
+      <c r="D359">
+        <v>39.1</v>
+      </c>
+      <c r="E359">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>200</v>
+      </c>
+      <c r="B360" t="s">
+        <v>128</v>
+      </c>
+      <c r="C360">
+        <v>1500</v>
+      </c>
+      <c r="D360">
+        <v>55.85</v>
+      </c>
+      <c r="E360">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>201</v>
+      </c>
+      <c r="B362" t="s">
+        <v>128</v>
+      </c>
+      <c r="C362">
+        <v>128</v>
+      </c>
+      <c r="D362">
+        <v>27.96</v>
+      </c>
+      <c r="E362">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>201</v>
+      </c>
+      <c r="B363" t="s">
+        <v>128</v>
+      </c>
+      <c r="C363">
+        <v>512</v>
+      </c>
+      <c r="D363">
+        <v>29.12</v>
+      </c>
+      <c r="E363">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>201</v>
+      </c>
+      <c r="B364" t="s">
+        <v>128</v>
+      </c>
+      <c r="C364">
+        <v>1500</v>
+      </c>
+      <c r="D364">
+        <v>30.210999999999999</v>
+      </c>
+      <c r="E364">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>129</v>
+      </c>
+      <c r="B366" t="s">
+        <v>128</v>
+      </c>
+      <c r="C366">
+        <v>128</v>
+      </c>
+      <c r="D366">
+        <v>29.81</v>
+      </c>
+      <c r="E366">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>129</v>
+      </c>
+      <c r="B367" t="s">
+        <v>128</v>
+      </c>
+      <c r="C367">
+        <v>512</v>
+      </c>
+      <c r="D367">
+        <v>39.21</v>
+      </c>
+      <c r="E367">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>129</v>
+      </c>
+      <c r="B368" t="s">
+        <v>128</v>
+      </c>
+      <c r="C368">
+        <v>1500</v>
+      </c>
+      <c r="D368">
+        <v>50.22</v>
+      </c>
+      <c r="E368">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3485,7 +8218,7 @@
   <dimension ref="A3:D31"/>
   <sheetViews>
     <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3504,7 +8237,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -3518,13 +8251,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3532,13 +8265,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -3546,13 +8279,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -3560,13 +8293,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3574,13 +8307,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -3588,13 +8321,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3602,13 +8335,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -3616,13 +8349,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -3630,13 +8363,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -3644,13 +8377,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -3658,13 +8391,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -3672,13 +8405,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -3686,13 +8419,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -3700,13 +8433,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -3714,13 +8447,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -3728,13 +8461,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
         <v>112</v>
       </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -3742,27 +8475,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3774,8 +8507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04436424-07DF-B343-BAAE-706A3CFD4756}">
   <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3784,44 +8517,43 @@
     <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>43</v>
@@ -3829,7 +8561,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -3846,21 +8578,21 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -3871,21 +8603,21 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -3896,64 +8628,67 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>43</v>
@@ -3966,8 +8701,8 @@
       <c r="H18">
         <v>5</v>
       </c>
-      <c r="I18">
-        <v>100</v>
+      <c r="I18" t="s">
+        <v>203</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -3975,27 +8710,27 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4005,101 +8740,150 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0BE0C2-6CFA-B544-AD1B-E0CD7C820A66}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="16">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="12">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="16">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="16">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="17">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>178</v>
       </c>
-      <c r="B3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="16">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="13">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="13">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="13">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="13">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="13">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="13">
-        <v>900</v>
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="17">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>